--- a/ig/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipment-limit</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment-limit</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmis les équipements spécifiques de même type dans cette organisation.</t>
+    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -362,10 +362,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J228-TypeCaracteristiqueEquipement-ROR/FHIR/JDV-J228-TypeCaracteristiqueEquipement-ROR</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -373,6 +374,18 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.extension:equipmentFeature.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J228-TypeCaracteristiqueEquipement-ROR/FHIR/JDV-J228-TypeCaracteristiqueEquipement-ROR</t>
   </si>
   <si>
     <t>Extension.extension:limitValue</t>
@@ -701,7 +714,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -710,9 +723,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.7578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1647,26 +1660,26 @@
         <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
+      <c r="AC9" s="2"/>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>115</v>
@@ -1692,7 +1705,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>118</v>
@@ -1702,7 +1715,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -1717,13 +1730,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1750,13 +1763,11 @@
         <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>73</v>
@@ -1774,38 +1785,40 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -1820,13 +1833,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1877,30 +1890,30 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1911,7 +1924,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -1923,13 +1936,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1968,42 +1981,42 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2011,10 +2024,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2026,24 +2039,22 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>73</v>
@@ -2073,42 +2084,42 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2116,7 +2127,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -2131,22 +2142,24 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
@@ -2188,19 +2201,19 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>107</v>
@@ -2208,10 +2221,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2219,7 +2232,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -2234,24 +2247,22 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>73</v>
@@ -2293,19 +2304,19 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>107</v>
@@ -2313,10 +2324,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2324,10 +2335,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2339,22 +2350,24 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>73</v>
@@ -2396,21 +2409,124 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG16" t="s" s="2">
+      <c r="B17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AJ17" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>107</v>
       </c>
     </row>
